--- a/public/fluxdata_example_file.xlsx
+++ b/public/fluxdata_example_file.xlsx
@@ -932,7 +932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -965,6 +965,9 @@
       <c r="G1" t="str">
         <v>direction</v>
       </c>
+      <c r="H1" t="str">
+        <v>legend</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -977,7 +980,7 @@
         <v>129</v>
       </c>
       <c r="D2" t="str">
-        <v>belastingen</v>
+        <v>indirecte_belastingen</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -987,6 +990,9 @@
       </c>
       <c r="G2" t="str">
         <v>r</v>
+      </c>
+      <c r="H2" t="str">
+        <v>indirecte_belastingen</v>
       </c>
     </row>
     <row r="3">
@@ -1506,7 +1512,7 @@
         <v>87.8</v>
       </c>
       <c r="D25" t="str">
-        <v>belastingen</v>
+        <v>indirecte_belastingen</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1516,6 +1522,9 @@
       </c>
       <c r="G25" t="str">
         <v>r</v>
+      </c>
+      <c r="H25" t="str">
+        <v>indirecte_belastingen</v>
       </c>
     </row>
     <row r="26">
@@ -1529,7 +1538,7 @@
         <v>11.5</v>
       </c>
       <c r="D26" t="str">
-        <v>belastingen</v>
+        <v>indirecte_belastingen</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1539,6 +1548,9 @@
       </c>
       <c r="G26" t="str">
         <v>r</v>
+      </c>
+      <c r="H26" t="str">
+        <v>indirecte_belastingen</v>
       </c>
     </row>
     <row r="27">
@@ -1552,7 +1564,7 @@
         <v>9.3</v>
       </c>
       <c r="D27" t="str">
-        <v>belastingen</v>
+        <v>indirecte_belastingen</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1562,6 +1574,9 @@
       </c>
       <c r="G27" t="str">
         <v>r</v>
+      </c>
+      <c r="H27" t="str">
+        <v>indirecte_belastingen</v>
       </c>
     </row>
     <row r="28">
@@ -1575,7 +1590,7 @@
         <v>6.6</v>
       </c>
       <c r="D28" t="str">
-        <v>belastingen</v>
+        <v>indirecte_belastingen</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1585,6 +1600,9 @@
       </c>
       <c r="G28" t="str">
         <v>r</v>
+      </c>
+      <c r="H28" t="str">
+        <v>indirecte_belastingen</v>
       </c>
     </row>
     <row r="29">
@@ -1598,7 +1616,7 @@
         <v>5.5</v>
       </c>
       <c r="D29" t="str">
-        <v>belastingen</v>
+        <v>indirecte_belastingen</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1608,6 +1626,9 @@
       </c>
       <c r="G29" t="str">
         <v>r</v>
+      </c>
+      <c r="H29" t="str">
+        <v>indirecte_belastingen</v>
       </c>
     </row>
     <row r="30">
@@ -1621,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="D30" t="str">
-        <v>belastingen</v>
+        <v>indirecte_belastingen</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1631,6 +1652,9 @@
       </c>
       <c r="G30" t="str">
         <v>r</v>
+      </c>
+      <c r="H30" t="str">
+        <v>indirecte_belastingen</v>
       </c>
     </row>
     <row r="31">
@@ -1644,7 +1668,7 @@
         <v>1.8</v>
       </c>
       <c r="D31" t="str">
-        <v>belastingen</v>
+        <v>indirecte_belastingen</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1654,6 +1678,9 @@
       </c>
       <c r="G31" t="str">
         <v>r</v>
+      </c>
+      <c r="H31" t="str">
+        <v>indirecte_belastingen</v>
       </c>
     </row>
     <row r="32">
@@ -1667,7 +1694,7 @@
         <v>0.6</v>
       </c>
       <c r="D32" t="str">
-        <v>belastingen</v>
+        <v>indirecte_belastingen</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1677,6 +1704,9 @@
       </c>
       <c r="G32" t="str">
         <v>r</v>
+      </c>
+      <c r="H32" t="str">
+        <v>indirecte_belastingen</v>
       </c>
     </row>
     <row r="33">
@@ -1690,7 +1720,7 @@
         <v>0.6</v>
       </c>
       <c r="D33" t="str">
-        <v>belastingen</v>
+        <v>indirecte_belastingen</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1700,6 +1730,9 @@
       </c>
       <c r="G33" t="str">
         <v>r</v>
+      </c>
+      <c r="H33" t="str">
+        <v>indirecte_belastingen</v>
       </c>
     </row>
     <row r="34">
@@ -1713,7 +1746,7 @@
         <v>0.1</v>
       </c>
       <c r="D34" t="str">
-        <v>belastingen</v>
+        <v>indirecte_belastingen</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1723,6 +1756,9 @@
       </c>
       <c r="G34" t="str">
         <v>r</v>
+      </c>
+      <c r="H34" t="str">
+        <v>indirecte_belastingen</v>
       </c>
     </row>
     <row r="35">
@@ -1782,7 +1818,7 @@
         <v>7.7</v>
       </c>
       <c r="D37" t="str">
-        <v>belastingen</v>
+        <v>indirecte_belastingen</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1792,6 +1828,9 @@
       </c>
       <c r="G37" t="str">
         <v>r</v>
+      </c>
+      <c r="H37" t="str">
+        <v>indirecte_belastingen</v>
       </c>
     </row>
     <row r="38">
@@ -1888,7 +1927,7 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2759,7 +2798,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2779,55 +2818,47 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>belastingen</v>
+        <v>Premies</v>
       </c>
       <c r="B2" t="str">
-        <v>#3498db</v>
+        <v>#db4c33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Premies</v>
+        <v>Uitgaven</v>
       </c>
       <c r="B3" t="str">
-        <v>#db4c33</v>
+        <v>#73b0af</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Uitgaven</v>
+        <v>Begrotingstekort</v>
       </c>
       <c r="B4" t="str">
-        <v>#73b0af</v>
+        <v>#696969</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Begrotingstekort</v>
+        <v>directe_belasting</v>
       </c>
       <c r="B5" t="str">
-        <v>#696969</v>
+        <v>#a167da</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>directe_belasting</v>
+        <v>indirecte_belastingen</v>
       </c>
       <c r="B6" t="str">
-        <v>#a167da</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>indirecte_belastingen</v>
-      </c>
-      <c r="B7" t="str">
         <v>#3498db</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B6"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/public/fluxdata_example_file.xlsx
+++ b/public/fluxdata_example_file.xlsx
@@ -932,7 +932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1480,16 +1480,16 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>begrotingstekort</v>
+        <v>omzetbelasting_btw</v>
       </c>
       <c r="B24" t="str">
-        <v>rijksbegroting</v>
+        <v>indirecte_belastingen</v>
       </c>
       <c r="C24">
-        <v>34.1</v>
+        <v>87.8</v>
       </c>
       <c r="D24" t="str">
-        <v>Begrotingstekort</v>
+        <v>indirecte_belastingen</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1499,17 +1499,20 @@
       </c>
       <c r="G24" t="str">
         <v>r</v>
+      </c>
+      <c r="H24" t="str">
+        <v>indirecte_belastingen</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>omzetbelasting_btw</v>
+        <v>accijnzen</v>
       </c>
       <c r="B25" t="str">
         <v>indirecte_belastingen</v>
       </c>
       <c r="C25">
-        <v>87.8</v>
+        <v>11.5</v>
       </c>
       <c r="D25" t="str">
         <v>indirecte_belastingen</v>
@@ -1529,13 +1532,13 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>accijnzen</v>
+        <v>overdrachts_en_assurantiebelasting</v>
       </c>
       <c r="B26" t="str">
         <v>indirecte_belastingen</v>
       </c>
       <c r="C26">
-        <v>11.5</v>
+        <v>9.3</v>
       </c>
       <c r="D26" t="str">
         <v>indirecte_belastingen</v>
@@ -1555,13 +1558,13 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>overdrachts_en_assurantiebelasting</v>
+        <v>belastingen_op_een_milieugrondslag</v>
       </c>
       <c r="B27" t="str">
         <v>indirecte_belastingen</v>
       </c>
       <c r="C27">
-        <v>9.3</v>
+        <v>6.6</v>
       </c>
       <c r="D27" t="str">
         <v>indirecte_belastingen</v>
@@ -1581,13 +1584,13 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>belastingen_op_een_milieugrondslag</v>
+        <v>motorrijtuigenbelasting</v>
       </c>
       <c r="B28" t="str">
         <v>indirecte_belastingen</v>
       </c>
       <c r="C28">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="D28" t="str">
         <v>indirecte_belastingen</v>
@@ -1607,13 +1610,13 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>motorrijtuigenbelasting</v>
+        <v>invoerrechten</v>
       </c>
       <c r="B29" t="str">
         <v>indirecte_belastingen</v>
       </c>
       <c r="C29">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D29" t="str">
         <v>indirecte_belastingen</v>
@@ -1633,13 +1636,13 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>invoerrechten</v>
+        <v>belasting_op_personenautos_en_motorrijwielen_bpm</v>
       </c>
       <c r="B30" t="str">
         <v>indirecte_belastingen</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="D30" t="str">
         <v>indirecte_belastingen</v>
@@ -1659,13 +1662,13 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>belasting_op_personenautos_en_motorrijwielen_bpm</v>
+        <v>verbruiksbelasting</v>
       </c>
       <c r="B31" t="str">
         <v>indirecte_belastingen</v>
       </c>
       <c r="C31">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="D31" t="str">
         <v>indirecte_belastingen</v>
@@ -1685,7 +1688,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>verbruiksbelasting</v>
+        <v>bankbelasting</v>
       </c>
       <c r="B32" t="str">
         <v>indirecte_belastingen</v>
@@ -1711,13 +1714,13 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>bankbelasting</v>
+        <v>belasting_op_zware_motorrijtuigen</v>
       </c>
       <c r="B33" t="str">
         <v>indirecte_belastingen</v>
       </c>
       <c r="C33">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="D33" t="str">
         <v>indirecte_belastingen</v>
@@ -1737,16 +1740,16 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>belasting_op_zware_motorrijtuigen</v>
+        <v>loon_en_inkomstenbelasting</v>
       </c>
       <c r="B34" t="str">
-        <v>indirecte_belastingen</v>
+        <v>directe_belastingen</v>
       </c>
       <c r="C34">
-        <v>0.1</v>
+        <v>110</v>
       </c>
       <c r="D34" t="str">
-        <v>indirecte_belastingen</v>
+        <v>directe_belasting</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1756,20 +1759,17 @@
       </c>
       <c r="G34" t="str">
         <v>r</v>
-      </c>
-      <c r="H34" t="str">
-        <v>indirecte_belastingen</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>loon_en_inkomstenbelasting</v>
+        <v>vennootschapsbelasting</v>
       </c>
       <c r="B35" t="str">
         <v>directe_belastingen</v>
       </c>
       <c r="C35">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D35" t="str">
         <v>directe_belasting</v>
@@ -1786,13 +1786,13 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>vennootschapsbelasting</v>
+        <v>dividendbelasting</v>
       </c>
       <c r="B36" t="str">
         <v>directe_belastingen</v>
       </c>
       <c r="C36">
-        <v>50</v>
+        <v>7.7</v>
       </c>
       <c r="D36" t="str">
         <v>directe_belasting</v>
@@ -1806,19 +1806,22 @@
       <c r="G36" t="str">
         <v>r</v>
       </c>
+      <c r="H36" t="str">
+        <v>directe_belasting</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>dividendbelasting</v>
+        <v>schenk_en_erfbelasting</v>
       </c>
       <c r="B37" t="str">
-        <v>indirecte_belastingen</v>
+        <v>directe_belastingen</v>
       </c>
       <c r="C37">
-        <v>7.7</v>
+        <v>4</v>
       </c>
       <c r="D37" t="str">
-        <v>indirecte_belastingen</v>
+        <v>directe_belasting</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1828,20 +1831,17 @@
       </c>
       <c r="G37" t="str">
         <v>r</v>
-      </c>
-      <c r="H37" t="str">
-        <v>indirecte_belastingen</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>schenk_en_erfbelasting</v>
+        <v>kansspelbelasting</v>
       </c>
       <c r="B38" t="str">
         <v>directe_belastingen</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D38" t="str">
         <v>directe_belasting</v>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>kansspelbelasting</v>
+        <v>overige_directe_belastingen</v>
       </c>
       <c r="B39" t="str">
         <v>directe_belastingen</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D39" t="str">
         <v>directe_belasting</v>
@@ -1881,16 +1881,16 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>overige_directe_belastingen</v>
+        <v>premies</v>
       </c>
       <c r="B40" t="str">
-        <v>directe_belastingen</v>
+        <v>rijksbegroting</v>
       </c>
       <c r="C40">
-        <v>0.4</v>
+        <v>151</v>
       </c>
       <c r="D40" t="str">
-        <v>directe_belasting</v>
+        <v>Premies</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1899,35 +1899,12 @@
         <v>1</v>
       </c>
       <c r="G40" t="str">
-        <v>r</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>premies</v>
-      </c>
-      <c r="B41" t="str">
-        <v>rijksbegroting</v>
-      </c>
-      <c r="C41">
-        <v>151</v>
-      </c>
-      <c r="D41" t="str">
-        <v>Premies</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="str">
         <v>r</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H40"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2454,7 +2431,7 @@
         <v>400</v>
       </c>
       <c r="B26">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="C26" t="str">
         <v>Omzetbelasting (btw)</v>
@@ -2694,7 +2671,7 @@
         <v>400</v>
       </c>
       <c r="B38">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="C38" t="str">
         <v>Dividendbelasting</v>
@@ -2754,7 +2731,7 @@
         <v>400</v>
       </c>
       <c r="B41">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="C41" t="str">
         <v>Overig</v>
@@ -2895,7 +2872,7 @@
         <v>title</v>
       </c>
       <c r="B3" t="str">
-        <v>Miljoenennota 2026</v>
+        <v>Miljoenennota 2026 (voorbeeld diagram)</v>
       </c>
     </row>
     <row r="4">
@@ -2927,7 +2904,7 @@
         <v>titleFontSize</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
